--- a/data/trans_orig/P41E_2023_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P41E_2023_R-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6068</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1657</v>
+        <v>1604</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14013</v>
+        <v>13522</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06208312171870524</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01695698442099819</v>
+        <v>0.0164120749888806</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1433737248914744</v>
+        <v>0.1383496128932082</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -762,19 +762,19 @@
         <v>7637</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2555</v>
+        <v>2548</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17179</v>
+        <v>16201</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.08738714230354626</v>
+        <v>0.08738714230354623</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02923395844229834</v>
+        <v>0.02915244724093428</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1965756923756171</v>
+        <v>0.1853899082502321</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -783,19 +783,19 @@
         <v>13704</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6742</v>
+        <v>6901</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>25019</v>
+        <v>25275</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07402803681951142</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03641897834611273</v>
+        <v>0.037279386905366</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1351486646533024</v>
+        <v>0.1365330523220317</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>91667</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>83722</v>
+        <v>84213</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>96078</v>
+        <v>96131</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9379168782812948</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8566262751085255</v>
+        <v>0.861650387106792</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9830430155790016</v>
+        <v>0.9835879250111196</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -833,19 +833,19 @@
         <v>79752</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>70210</v>
+        <v>71188</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>84834</v>
+        <v>84841</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9126128576964537</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8034243076243827</v>
+        <v>0.814610091749768</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9707660415577016</v>
+        <v>0.970847552759066</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>93</v>
@@ -854,19 +854,19 @@
         <v>171419</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>160104</v>
+        <v>159848</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>178381</v>
+        <v>178222</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9259719631804885</v>
+        <v>0.9259719631804886</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8648513353466977</v>
+        <v>0.8634669476779684</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9635810216538874</v>
+        <v>0.962720613094634</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>4262</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1301</v>
+        <v>1284</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>12003</v>
+        <v>11721</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01966438619277714</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.00600113274439425</v>
+        <v>0.005923142519550178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05538501170640699</v>
+        <v>0.05408363378129315</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -979,19 +979,19 @@
         <v>3887</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1013</v>
+        <v>1031</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9079</v>
+        <v>9196</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01720057254528412</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.004482416194141195</v>
+        <v>0.004560842547168096</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04018173212113709</v>
+        <v>0.04069959304794391</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -1000,19 +1000,19 @@
         <v>8148</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3592</v>
+        <v>3347</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>16830</v>
+        <v>16424</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01840679260428287</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.008113520640483112</v>
+        <v>0.007560237797397265</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03801865174075597</v>
+        <v>0.03710169988476252</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>212463</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>204722</v>
+        <v>205004</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>215424</v>
+        <v>215441</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9803356138072228</v>
+        <v>0.9803356138072229</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9446149882935939</v>
+        <v>0.945916366218707</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9939988672556057</v>
+        <v>0.99407685748045</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>211</v>
@@ -1050,19 +1050,19 @@
         <v>222069</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>216877</v>
+        <v>216760</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>224943</v>
+        <v>224925</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9827994274547158</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9598182678788629</v>
+        <v>0.9593004069520561</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9955175838058589</v>
+        <v>0.995439157452832</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>342</v>
@@ -1071,19 +1071,19 @@
         <v>434533</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>425851</v>
+        <v>426257</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>439089</v>
+        <v>439334</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.981593207395717</v>
+        <v>0.9815932073957172</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9619813482592441</v>
+        <v>0.9628983001152375</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9918864793595168</v>
+        <v>0.9924397622026028</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>7859</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3731</v>
+        <v>3817</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14848</v>
+        <v>15203</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02354453020457603</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0111767460828721</v>
+        <v>0.01143391439533989</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04448173732827303</v>
+        <v>0.04554546735142491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1196,19 +1196,19 @@
         <v>6715</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2955</v>
+        <v>3348</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12324</v>
+        <v>12389</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02104821333461268</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.009262969469531887</v>
+        <v>0.01049523903436835</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03863087993080092</v>
+        <v>0.03883479093040242</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>18</v>
@@ -1217,19 +1217,19 @@
         <v>14574</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>9018</v>
+        <v>8809</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>22762</v>
+        <v>22506</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.02232465625360989</v>
+        <v>0.02232465625360988</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01381464357160995</v>
+        <v>0.01349328030223633</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03486721252084667</v>
+        <v>0.03447598570068317</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>325946</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>318957</v>
+        <v>318602</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>330074</v>
+        <v>329988</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.976455469795424</v>
+        <v>0.9764554697954239</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9555182626717268</v>
+        <v>0.954454532648575</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9888232539171276</v>
+        <v>0.98856608560466</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>434</v>
@@ -1267,19 +1267,19 @@
         <v>312296</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>306687</v>
+        <v>306622</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>316056</v>
+        <v>315663</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9789517866653875</v>
+        <v>0.9789517866653873</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9613691200691991</v>
+        <v>0.9611652090695976</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9907370305304681</v>
+        <v>0.9895047609656318</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>727</v>
@@ -1288,19 +1288,19 @@
         <v>638242</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>630054</v>
+        <v>630310</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>643798</v>
+        <v>644007</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9776753437463901</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9651327874791532</v>
+        <v>0.9655240142993167</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9861853564283899</v>
+        <v>0.9865067196977637</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>17131</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10832</v>
+        <v>10867</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25972</v>
+        <v>26044</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05140097538850279</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03250168744859046</v>
+        <v>0.0326059849546475</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07792738649848494</v>
+        <v>0.07814517314827964</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>36</v>
@@ -1413,19 +1413,19 @@
         <v>24346</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17123</v>
+        <v>17470</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>33111</v>
+        <v>32595</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06305836675692168</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.04434984494311139</v>
+        <v>0.04524795225977481</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08576026694626356</v>
+        <v>0.08442474633993707</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>55</v>
@@ -1434,19 +1434,19 @@
         <v>41477</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>31442</v>
+        <v>31587</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>53386</v>
+        <v>52137</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.05765754514500149</v>
+        <v>0.05765754514500151</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04370738306991231</v>
+        <v>0.04390979370577845</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07421218940731118</v>
+        <v>0.07247668297535466</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>316148</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>307307</v>
+        <v>307235</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>322447</v>
+        <v>322412</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.948599024611497</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9220726135015148</v>
+        <v>0.92185482685172</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9674983125514094</v>
+        <v>0.9673940150453523</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>573</v>
@@ -1484,19 +1484,19 @@
         <v>361740</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>352975</v>
+        <v>353491</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>368963</v>
+        <v>368616</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9369416332430781</v>
+        <v>0.9369416332430783</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9142397330537363</v>
+        <v>0.915575253660063</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9556501550568886</v>
+        <v>0.9547520477402253</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>885</v>
@@ -1505,19 +1505,19 @@
         <v>677887</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>665978</v>
+        <v>667227</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>687922</v>
+        <v>687777</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9423424548549986</v>
+        <v>0.9423424548549985</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9257878105926889</v>
+        <v>0.9275233170246457</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9562926169300876</v>
+        <v>0.9560902062942217</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>51412</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>39736</v>
+        <v>39737</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63244</v>
+        <v>65402</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1506929415322805</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.116469982887275</v>
+        <v>0.1164715508470367</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.185374874593608</v>
+        <v>0.191700055427564</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>87</v>
@@ -1630,19 +1630,19 @@
         <v>55890</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>46463</v>
+        <v>46270</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>67196</v>
+        <v>68677</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1763873944506313</v>
+        <v>0.1763873944506312</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1466347251009684</v>
+        <v>0.1460259280036614</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2120688734029078</v>
+        <v>0.2167431320473373</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>149</v>
@@ -1651,19 +1651,19 @@
         <v>107302</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>91792</v>
+        <v>92719</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>123958</v>
+        <v>124746</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1630655223325327</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1394946406654166</v>
+        <v>0.1409039118479463</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1883770876100822</v>
+        <v>0.1895748179954692</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>289758</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>277926</v>
+        <v>275768</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>301434</v>
+        <v>301433</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8493070584677196</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.814625125406392</v>
+        <v>0.808299944572436</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8835300171127248</v>
+        <v>0.8835284491529632</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>442</v>
@@ -1701,19 +1701,19 @@
         <v>260969</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>249663</v>
+        <v>248182</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>270396</v>
+        <v>270589</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8236126055493689</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7879311265970922</v>
+        <v>0.7832568679526631</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8533652748990316</v>
+        <v>0.8539740719963389</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>763</v>
@@ -1722,19 +1722,19 @@
         <v>550727</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>534071</v>
+        <v>533283</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>566237</v>
+        <v>565310</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8369344776674673</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8116229123899179</v>
+        <v>0.8104251820045308</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8605053593345834</v>
+        <v>0.8590960881520537</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>54876</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>44926</v>
+        <v>45798</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>67182</v>
+        <v>67649</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2529230644395584</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2070637744827521</v>
+        <v>0.2110828040214812</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3096426398521855</v>
+        <v>0.3117958961242475</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>91</v>
@@ -1847,19 +1847,19 @@
         <v>50325</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>42620</v>
+        <v>41311</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59823</v>
+        <v>58914</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3056600793420467</v>
+        <v>0.3056600793420468</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.258865984168772</v>
+        <v>0.2509155225694988</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3633484392214032</v>
+        <v>0.3578308699081896</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>172</v>
@@ -1868,19 +1868,19 @@
         <v>105201</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>91107</v>
+        <v>91909</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>119337</v>
+        <v>118898</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2756760449992859</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2387446690337219</v>
+        <v>0.2408455200984357</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.312718560413732</v>
+        <v>0.3115689722121157</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>162091</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>149785</v>
+        <v>149318</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>172041</v>
+        <v>171169</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7470769355604416</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6903573601478145</v>
+        <v>0.6882041038757525</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.792936225517248</v>
+        <v>0.7889171959785185</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>228</v>
@@ -1918,19 +1918,19 @@
         <v>114318</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>104820</v>
+        <v>105729</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>122023</v>
+        <v>123332</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6943399206579532</v>
+        <v>0.6943399206579534</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6366515607785969</v>
+        <v>0.6421691300918105</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7411340158312281</v>
+        <v>0.7490844774305012</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>457</v>
@@ -1939,19 +1939,19 @@
         <v>276409</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>262273</v>
+        <v>262712</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>290503</v>
+        <v>289701</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7243239550007142</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6872814395862679</v>
+        <v>0.6884310277878842</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7612553309662781</v>
+        <v>0.7591544799015643</v>
       </c>
     </row>
     <row r="21">
@@ -2043,19 +2043,19 @@
         <v>44818</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36486</v>
+        <v>37396</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53660</v>
+        <v>53576</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3758077167195937</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3059432024702503</v>
+        <v>0.313570491855057</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4499521479888708</v>
+        <v>0.4492457222957792</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>102</v>
@@ -2064,19 +2064,19 @@
         <v>51840</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44863</v>
+        <v>44229</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>60096</v>
+        <v>59608</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4391978415574478</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3800891804205007</v>
+        <v>0.3747150847223628</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5091415646581093</v>
+        <v>0.5050106965728114</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>177</v>
@@ -2085,19 +2085,19 @@
         <v>96658</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>85921</v>
+        <v>85369</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>107134</v>
+        <v>108556</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4073394010053324</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3620881830238489</v>
+        <v>0.359764232183941</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4514842279215978</v>
+        <v>0.4574782064798687</v>
       </c>
     </row>
     <row r="23">
@@ -2114,19 +2114,19 @@
         <v>74440</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>65598</v>
+        <v>65682</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>82772</v>
+        <v>81862</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6241922832804063</v>
+        <v>0.6241922832804062</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.550047852011129</v>
+        <v>0.5507542777042208</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6940567975297496</v>
+        <v>0.6864295081449426</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>135</v>
@@ -2135,19 +2135,19 @@
         <v>66194</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>57938</v>
+        <v>58426</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>73171</v>
+        <v>73805</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.5608021584425521</v>
+        <v>0.560802158442552</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4908584353418904</v>
+        <v>0.4949893034271884</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6199108195794992</v>
+        <v>0.6252849152776367</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>249</v>
@@ -2156,19 +2156,19 @@
         <v>140634</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>130158</v>
+        <v>128736</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>151371</v>
+        <v>151923</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.5926605989946676</v>
+        <v>0.5926605989946675</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5485157720784025</v>
+        <v>0.5425217935201314</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6379118169761512</v>
+        <v>0.6402357678160591</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>186425</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>164746</v>
+        <v>164231</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>210442</v>
+        <v>207558</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1123763608639739</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.09930786266499657</v>
+        <v>0.09899777185499622</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1268534113145427</v>
+        <v>0.1251152631308332</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>334</v>
@@ -2281,19 +2281,19 @@
         <v>200639</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>181412</v>
+        <v>178536</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>223460</v>
+        <v>224133</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1240059624496388</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1121225238714363</v>
+        <v>0.1103449110749032</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1381104799665015</v>
+        <v>0.1385264958297466</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>587</v>
@@ -2302,19 +2302,19 @@
         <v>387064</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>357175</v>
+        <v>353815</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>421046</v>
+        <v>416369</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1181184777338513</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1089973780903134</v>
+        <v>0.1079719806333817</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1284883934276689</v>
+        <v>0.1270612610235386</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>1472513</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1448496</v>
+        <v>1451380</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1494192</v>
+        <v>1494707</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.887623639136026</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.873146588685457</v>
+        <v>0.8748847368691668</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9006921373350032</v>
+        <v>0.9010022281450039</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2070</v>
@@ -2352,19 +2352,19 @@
         <v>1417339</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1394518</v>
+        <v>1393845</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1436566</v>
+        <v>1439442</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.875994037550361</v>
+        <v>0.8759940375503611</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8618895200334985</v>
+        <v>0.8614735041702534</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8878774761285637</v>
+        <v>0.8896550889250968</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3516</v>
@@ -2373,19 +2373,19 @@
         <v>2889852</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>2855870</v>
+        <v>2860547</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>2919741</v>
+        <v>2923101</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.8818815222661487</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.871511606572331</v>
+        <v>0.8729387389764612</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.8910026219096866</v>
+        <v>0.8920280193666181</v>
       </c>
     </row>
     <row r="27">
